--- a/2020项目对接/01-01珊瑚配置产品/第一批-珊瑚健康管家测试卡50张(海外).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第一批-珊瑚健康管家测试卡50张(海外).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Healthlink\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\01-01珊瑚配置产品\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,295 +42,297 @@
     <t>0910</t>
   </si>
   <si>
+    <t>920121500002</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>920121500003</t>
+  </si>
+  <si>
+    <t>3988</t>
+  </si>
+  <si>
+    <t>920121500004</t>
+  </si>
+  <si>
+    <t>4997</t>
+  </si>
+  <si>
+    <t>920121500005</t>
+  </si>
+  <si>
+    <t>8689</t>
+  </si>
+  <si>
+    <t>920121500006</t>
+  </si>
+  <si>
+    <t>4179</t>
+  </si>
+  <si>
+    <t>920121500007</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>920121500008</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>920121500009</t>
+  </si>
+  <si>
+    <t>8594</t>
+  </si>
+  <si>
+    <t>920121500010</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>920121500011</t>
+  </si>
+  <si>
+    <t>8410</t>
+  </si>
+  <si>
+    <t>920121500012</t>
+  </si>
+  <si>
+    <t>5914</t>
+  </si>
+  <si>
+    <t>920121500013</t>
+  </si>
+  <si>
+    <t>9961</t>
+  </si>
+  <si>
+    <t>920121500014</t>
+  </si>
+  <si>
+    <t>9777</t>
+  </si>
+  <si>
+    <t>920121500015</t>
+  </si>
+  <si>
+    <t>7502</t>
+  </si>
+  <si>
+    <t>920121500016</t>
+  </si>
+  <si>
+    <t>7756</t>
+  </si>
+  <si>
+    <t>920121500017</t>
+  </si>
+  <si>
+    <t>0539</t>
+  </si>
+  <si>
+    <t>920121500018</t>
+  </si>
+  <si>
+    <t>6006</t>
+  </si>
+  <si>
+    <t>920121500019</t>
+  </si>
+  <si>
+    <t>3367</t>
+  </si>
+  <si>
+    <t>920121500020</t>
+  </si>
+  <si>
+    <t>6125</t>
+  </si>
+  <si>
+    <t>920121500021</t>
+  </si>
+  <si>
+    <t>9376</t>
+  </si>
+  <si>
+    <t>920121500022</t>
+  </si>
+  <si>
+    <t>6513</t>
+  </si>
+  <si>
+    <t>920121500023</t>
+  </si>
+  <si>
+    <t>0731</t>
+  </si>
+  <si>
+    <t>920121500024</t>
+  </si>
+  <si>
+    <t>6045</t>
+  </si>
+  <si>
+    <t>920121500025</t>
+  </si>
+  <si>
+    <t>9623</t>
+  </si>
+  <si>
+    <t>920121500026</t>
+  </si>
+  <si>
+    <t>8312</t>
+  </si>
+  <si>
+    <t>920121500027</t>
+  </si>
+  <si>
+    <t>6075</t>
+  </si>
+  <si>
+    <t>920121500028</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>920121500029</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>920121500030</t>
+  </si>
+  <si>
+    <t>5454</t>
+  </si>
+  <si>
+    <t>920121500031</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>920121500032</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>920121500033</t>
+  </si>
+  <si>
+    <t>2883</t>
+  </si>
+  <si>
+    <t>920121500034</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>920121500035</t>
+  </si>
+  <si>
+    <t>7986</t>
+  </si>
+  <si>
+    <t>920121500036</t>
+  </si>
+  <si>
+    <t>4971</t>
+  </si>
+  <si>
+    <t>920121500037</t>
+  </si>
+  <si>
+    <t>6799</t>
+  </si>
+  <si>
+    <t>920121500038</t>
+  </si>
+  <si>
+    <t>7392</t>
+  </si>
+  <si>
+    <t>920121500039</t>
+  </si>
+  <si>
+    <t>9482</t>
+  </si>
+  <si>
+    <t>920121500040</t>
+  </si>
+  <si>
+    <t>5067</t>
+  </si>
+  <si>
+    <t>920121500041</t>
+  </si>
+  <si>
+    <t>3637</t>
+  </si>
+  <si>
+    <t>920121500042</t>
+  </si>
+  <si>
+    <t>5254</t>
+  </si>
+  <si>
+    <t>920121500043</t>
+  </si>
+  <si>
+    <t>9806</t>
+  </si>
+  <si>
+    <t>920121500044</t>
+  </si>
+  <si>
+    <t>920121500045</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>920121500046</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>920121500047</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>920121500048</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>920121500049</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
     <t>920121500001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8598</t>
-  </si>
-  <si>
-    <t>920121500002</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>920121500003</t>
-  </si>
-  <si>
-    <t>3988</t>
-  </si>
-  <si>
-    <t>920121500004</t>
-  </si>
-  <si>
-    <t>4997</t>
-  </si>
-  <si>
-    <t>920121500005</t>
-  </si>
-  <si>
-    <t>8689</t>
-  </si>
-  <si>
-    <t>920121500006</t>
-  </si>
-  <si>
-    <t>4179</t>
-  </si>
-  <si>
-    <t>920121500007</t>
-  </si>
-  <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>920121500008</t>
-  </si>
-  <si>
-    <t>3153</t>
-  </si>
-  <si>
-    <t>920121500009</t>
-  </si>
-  <si>
-    <t>8594</t>
-  </si>
-  <si>
-    <t>920121500010</t>
-  </si>
-  <si>
-    <t>8800</t>
-  </si>
-  <si>
-    <t>920121500011</t>
-  </si>
-  <si>
-    <t>8410</t>
-  </si>
-  <si>
-    <t>920121500012</t>
-  </si>
-  <si>
-    <t>5914</t>
-  </si>
-  <si>
-    <t>920121500013</t>
-  </si>
-  <si>
-    <t>9961</t>
-  </si>
-  <si>
-    <t>920121500014</t>
-  </si>
-  <si>
-    <t>9777</t>
-  </si>
-  <si>
-    <t>920121500015</t>
-  </si>
-  <si>
-    <t>7502</t>
-  </si>
-  <si>
-    <t>920121500016</t>
-  </si>
-  <si>
-    <t>7756</t>
-  </si>
-  <si>
-    <t>920121500017</t>
-  </si>
-  <si>
-    <t>0539</t>
-  </si>
-  <si>
-    <t>920121500018</t>
-  </si>
-  <si>
-    <t>6006</t>
-  </si>
-  <si>
-    <t>920121500019</t>
-  </si>
-  <si>
-    <t>3367</t>
-  </si>
-  <si>
-    <t>920121500020</t>
-  </si>
-  <si>
-    <t>6125</t>
-  </si>
-  <si>
-    <t>920121500021</t>
-  </si>
-  <si>
-    <t>9376</t>
-  </si>
-  <si>
-    <t>920121500022</t>
-  </si>
-  <si>
-    <t>6513</t>
-  </si>
-  <si>
-    <t>920121500023</t>
-  </si>
-  <si>
-    <t>0731</t>
-  </si>
-  <si>
-    <t>920121500024</t>
-  </si>
-  <si>
-    <t>6045</t>
-  </si>
-  <si>
-    <t>920121500025</t>
-  </si>
-  <si>
-    <t>9623</t>
-  </si>
-  <si>
-    <t>920121500026</t>
-  </si>
-  <si>
-    <t>8312</t>
-  </si>
-  <si>
-    <t>920121500027</t>
-  </si>
-  <si>
-    <t>6075</t>
-  </si>
-  <si>
-    <t>920121500028</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>920121500029</t>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>920121500030</t>
-  </si>
-  <si>
-    <t>5454</t>
-  </si>
-  <si>
-    <t>920121500031</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>920121500032</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>920121500033</t>
-  </si>
-  <si>
-    <t>2883</t>
-  </si>
-  <si>
-    <t>920121500034</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>920121500035</t>
-  </si>
-  <si>
-    <t>7986</t>
-  </si>
-  <si>
-    <t>920121500036</t>
-  </si>
-  <si>
-    <t>4971</t>
-  </si>
-  <si>
-    <t>920121500037</t>
-  </si>
-  <si>
-    <t>6799</t>
-  </si>
-  <si>
-    <t>920121500038</t>
-  </si>
-  <si>
-    <t>7392</t>
-  </si>
-  <si>
-    <t>920121500039</t>
-  </si>
-  <si>
-    <t>9482</t>
-  </si>
-  <si>
-    <t>920121500040</t>
-  </si>
-  <si>
-    <t>5067</t>
-  </si>
-  <si>
-    <t>920121500041</t>
-  </si>
-  <si>
-    <t>3637</t>
-  </si>
-  <si>
-    <t>920121500042</t>
-  </si>
-  <si>
-    <t>5254</t>
-  </si>
-  <si>
-    <t>920121500043</t>
-  </si>
-  <si>
-    <t>9806</t>
-  </si>
-  <si>
-    <t>920121500044</t>
-  </si>
-  <si>
-    <t>920121500045</t>
-  </si>
-  <si>
-    <t>0023</t>
-  </si>
-  <si>
-    <t>920121500046</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>920121500047</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>920121500048</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>920121500049</t>
-  </si>
-  <si>
-    <t>1360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -365,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +717,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,10 +753,10 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -753,44 +764,44 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -798,87 +809,87 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -886,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -897,10 +908,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -908,10 +919,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -919,10 +930,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -930,10 +941,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -941,10 +952,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -952,10 +963,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -963,10 +974,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -974,10 +985,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -985,10 +996,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -996,10 +1007,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1007,10 +1018,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1018,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1029,10 +1040,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1040,10 +1051,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1051,10 +1062,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1062,10 +1073,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1073,10 +1084,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1084,10 +1095,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1095,10 +1106,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1106,10 +1117,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1117,10 +1128,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1128,10 +1139,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1139,10 +1150,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1150,10 +1161,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1161,10 +1172,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1172,10 +1183,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1183,10 +1194,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1194,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1205,10 +1216,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1216,10 +1227,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1227,10 +1238,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1238,10 +1249,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1249,10 +1260,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1260,10 +1271,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1271,10 +1282,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1282,10 +1293,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/2020项目对接/01-01珊瑚配置产品/第一批-珊瑚健康管家测试卡50张(海外).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第一批-珊瑚健康管家测试卡50张(海外).xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="结果数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -108,9 +108,6 @@
     <t>5914</t>
   </si>
   <si>
-    <t>920121500013</t>
-  </si>
-  <si>
     <t>9961</t>
   </si>
   <si>
@@ -332,6 +329,10 @@
   </si>
   <si>
     <t>8598</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920121500013</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -428,11 +429,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +718,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,13 +729,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -753,10 +754,10 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -764,21 +765,21 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -786,10 +787,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -797,10 +798,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -819,10 +820,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -830,10 +831,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -841,10 +842,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -852,10 +853,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -863,10 +864,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -874,10 +875,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -885,10 +886,10 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -896,55 +897,55 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -952,10 +953,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -963,10 +964,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -974,10 +975,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -985,10 +986,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -996,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1007,10 +1008,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1018,10 +1019,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1029,10 +1030,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1040,10 +1041,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1051,10 +1052,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1062,10 +1063,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1073,10 +1074,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1084,10 +1085,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1095,10 +1096,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1106,10 +1107,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1117,10 +1118,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1128,10 +1129,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1139,10 +1140,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1150,10 +1151,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1161,10 +1162,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1172,10 +1173,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1183,10 +1184,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1194,10 +1195,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1205,10 +1206,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1216,10 +1217,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1227,10 +1228,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1238,10 +1239,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1249,10 +1250,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1260,10 +1261,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1271,10 +1272,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1282,10 +1283,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1293,10 +1294,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
